--- a/Algoritmo_Rota/Planilhas/BFS/PLN_42_15.xlsx
+++ b/Algoritmo_Rota/Planilhas/BFS/PLN_42_15.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3610.933333333333</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>4066</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3018</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.04986703395843506</v>
+        <v>4087</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34, 10, 1, 23, 4, 13, 40, 25, 35, 33, 36, 31, 22, 28, 20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 13 -&gt; 23 -&gt; 22 -&gt; 10 -&gt; 4 -&gt; 1 -&gt; 20 -&gt; 35 -&gt; 31 -&gt; 40 -&gt; 36 -&gt; 28 -&gt; 34 -&gt; 33 -&gt; 25 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 23 -&gt; 22 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 6 -&gt; 9 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 17 -&gt; 13 -&gt; 29 -&gt; 35 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 38 -&gt; 39 -&gt; 40 -&gt; 39 -&gt; 36 -&gt; 35 -&gt; 29 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 27 -&gt; 33 -&gt; 26 -&gt; 25 -&gt; 3 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.06386280059814453</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4427.2</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>4702</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3947</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.04852584997812907</v>
+        <v>3032</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8, 2, 21, 27, 12, 19, 31, 39, 38, 14, 26, 13, 40, 15, 24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 24 -&gt; 31 -&gt; 39 -&gt; 40 -&gt; 38 -&gt; 8 -&gt; 27 -&gt; 26 -&gt; 2 -&gt; 13 -&gt; 12 -&gt; 15 -&gt; 14 -&gt; 21 -&gt; 19 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>24 -&gt; 20 -&gt; 31 -&gt; 38 -&gt; 39 -&gt; 40 -&gt; 39 -&gt; 38 -&gt; 31 -&gt; 20 -&gt; 17 -&gt; 13 -&gt; 9 -&gt; 8 -&gt; 5 -&gt; 6 -&gt; 27 -&gt; 26 -&gt; 25 -&gt; 3 -&gt; 2 -&gt; 3 -&gt; 6 -&gt; 9 -&gt; 13 -&gt; 12 -&gt; 11 -&gt; 15 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 18 -&gt; 19 -&gt; 20 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.06105995178222656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3965.866666666667</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4422</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3645</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.05241620540618896</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3747.666666666667</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4148</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3251</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.05031347274780273</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2961.7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3208</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2737</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.05316071510314942</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3140.833333333333</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3420</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2604</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.05070131619771322</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4298.7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4588</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3726</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.05310610135396322</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3965.633333333333</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4250</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3608</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.05681522687276205</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4263.233333333334</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4608</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3814</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.06964033444722494</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3961.3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4392</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3535</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.06628999710083008</v>
+        <v>3554</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32, 42, 20, 17, 16, 1, 15, 11, 37, 9, 24, 28, 5, 21, 22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 9 -&gt; 28 -&gt; 37 -&gt; 17 -&gt; 32 -&gt; 42 -&gt; 24 -&gt; 22 -&gt; 21 -&gt; 15 -&gt; 11 -&gt; 1 -&gt; 20 -&gt; 16 -&gt; 5 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6 -&gt; 9 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 30 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 41 -&gt; 42 -&gt; 41 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 22 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 15 -&gt; 11 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 6 -&gt; 9 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.06305694580078125</v>
       </c>
     </row>
   </sheetData>
